--- a/Testai_05_10 05_19 05_24 06_02 06_10 ir senesni.xlsx
+++ b/Testai_05_10 05_19 05_24 06_02 06_10 ir senesni.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vad2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koefi\OneDrive\Desktop\VAD-tests-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="104">
   <si>
     <t>Bilstm</t>
   </si>
@@ -185,17 +185,6 @@
     <t>train_6.mat</t>
   </si>
   <si>
-    <t>Validation records</t>
-  </si>
-  <si>
-    <t>946684801000_946684809000
-946685379000_946685835000
-1616059274148_1616060058148
-1616059387023_1616060091023
-1616587480391_1616588384391
-1616587502020_1616587534020</t>
-  </si>
-  <si>
     <t>train_7</t>
   </si>
   <si>
@@ -220,11 +209,6 @@
     <t>train_9.mat</t>
   </si>
   <si>
-    <t>1616059229367_1616060077367
-1616059399983_1616060095983
-1616587495321_1616587551321</t>
-  </si>
-  <si>
     <t>train_10</t>
   </si>
   <si>
@@ -343,15 +327,6 @@
   </si>
   <si>
     <t>train_23.mat</t>
-  </si>
-  <si>
-    <t>80% su "ofisas kalba daug zmoniu 12 khz.wav"</t>
-  </si>
-  <si>
-    <t>57% rukykla</t>
-  </si>
-  <si>
-    <t>valgykloje aukstas false-positive, fona aptinka kaip sneka</t>
   </si>
   <si>
     <t>Accuracy, %</t>
@@ -481,10 +456,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,8 +791,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>109</v>
+      <c r="B1" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -867,13 +842,10 @@
         <v>36</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1253,9 +1225,7 @@
       <c r="T11" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1309,7 +1279,7 @@
       <c r="T12" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="17"/>
+      <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1363,11 +1333,11 @@
       <c r="T13" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="17"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>47</v>
@@ -1415,13 +1385,13 @@
         <v>89</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="V14" s="18"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>47</v>
@@ -1469,16 +1439,16 @@
         <v>88</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
-      </c>
-      <c r="V15" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="V15" s="18"/>
     </row>
     <row r="17" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -1493,7 +1463,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="4">
         <v>800</v>
@@ -1523,18 +1493,16 @@
         <v>94</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="V17" s="13"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1549,7 +1517,7 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" s="4">
         <v>800</v>
@@ -1580,10 +1548,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -1598,7 +1566,7 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4">
         <v>1200</v>
@@ -1627,15 +1595,15 @@
         <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
@@ -1650,7 +1618,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4">
         <v>800</v>
@@ -1679,21 +1647,21 @@
         <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4">
         <v>50</v>
@@ -1702,7 +1670,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H25" s="4">
         <v>800</v>
@@ -1731,15 +1699,15 @@
         <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>
@@ -1754,7 +1722,7 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H27" s="4">
         <v>800</v>
@@ -1783,15 +1751,15 @@
         <v>86</v>
       </c>
       <c r="T27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>39</v>
@@ -1806,10 +1774,10 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I29" s="4">
         <v>0.75</v>
@@ -1835,15 +1803,15 @@
         <v>83</v>
       </c>
       <c r="T29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
@@ -1858,7 +1826,7 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H31" s="4">
         <v>400</v>
@@ -1887,15 +1855,15 @@
         <v>86</v>
       </c>
       <c r="T31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>39</v>
@@ -1910,7 +1878,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H33" s="4">
         <v>400</v>
@@ -1938,15 +1906,15 @@
         <v>95</v>
       </c>
       <c r="T33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1961,7 +1929,7 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H35" s="4">
         <v>400</v>
@@ -1989,15 +1957,15 @@
         <v>94</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -2012,10 +1980,10 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I37" s="4">
         <v>0.75</v>
@@ -2040,15 +2008,15 @@
         <v>95</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -2063,10 +2031,10 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I39" s="4">
         <v>0.75</v>
@@ -2091,15 +2059,15 @@
         <v>94</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -2114,10 +2082,10 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I41" s="4">
         <v>0.75</v>
@@ -2139,16 +2107,16 @@
         <v>26</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T41" s="6"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -2163,10 +2131,10 @@
         <v>0.5</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I43" s="4">
         <v>0.75</v>
@@ -2192,18 +2160,18 @@
       </c>
       <c r="T43" s="6"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E45" s="15">
         <v>50</v>
@@ -2212,10 +2180,10 @@
         <v>0.5</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I45" s="4">
         <v>0.75</v>
@@ -2240,16 +2208,7 @@
         <v>95</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="U45" t="s">
-        <v>105</v>
-      </c>
-      <c r="V45" t="s">
-        <v>106</v>
-      </c>
-      <c r="W45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
